--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="120" windowWidth="22120" windowHeight="16100" activeTab="1"/>
+    <workbookView xWindow="10100" yWindow="0" windowWidth="22120" windowHeight="16100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mn_data" sheetId="2" r:id="rId1"/>
     <sheet name="source" sheetId="3" r:id="rId2"/>
+    <sheet name="layout" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mn_data!$A$1:$BA$1</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="276">
   <si>
     <t>1</t>
   </si>
@@ -695,13 +696,169 @@
   </si>
   <si>
     <t>Source: Minnesota House of Representatives Research Office</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota House of Representatives Research Office</t>
+  </si>
+  <si>
+    <t>mn_data</t>
+  </si>
+  <si>
+    <t>Minnesota taxes paid versus government aid paid per county, 2010</t>
+  </si>
+  <si>
+    <t>Area ID</t>
+  </si>
+  <si>
+    <t>Minnesota county name</t>
+  </si>
+  <si>
+    <t>Minnesota county ID</t>
+  </si>
+  <si>
+    <t>Minnesota region ID</t>
+  </si>
+  <si>
+    <t>County population per 2010 Census</t>
+  </si>
+  <si>
+    <t>Total government credits received</t>
+  </si>
+  <si>
+    <t>Total payments made</t>
+  </si>
+  <si>
+    <t>Net total (TOTAL_CREDITS - TOTAL_PAYMENTS)</t>
+  </si>
+  <si>
+    <t>Total aid per capita</t>
+  </si>
+  <si>
+    <t>Total taxes pain per capity</t>
+  </si>
+  <si>
+    <t>Next total per capita (AID_PER_CAP - TAX_PER_CAPITA)</t>
+  </si>
+  <si>
+    <t>Total aid received</t>
+  </si>
+  <si>
+    <t>Educational aid received</t>
+  </si>
+  <si>
+    <t>High school aid received</t>
+  </si>
+  <si>
+    <t>Total highway aid received</t>
+  </si>
+  <si>
+    <t>County highway aid received</t>
+  </si>
+  <si>
+    <t>City highway aid received</t>
+  </si>
+  <si>
+    <t>Town highway aid received</t>
+  </si>
+  <si>
+    <t>Total local government aid received</t>
+  </si>
+  <si>
+    <t>Reducation aid received</t>
+  </si>
+  <si>
+    <t>Community corrections aid received</t>
+  </si>
+  <si>
+    <t>County programs aid received</t>
+  </si>
+  <si>
+    <t>Property tax credits received</t>
+  </si>
+  <si>
+    <t>Agricultural credits received</t>
+  </si>
+  <si>
+    <t>Homestead Market Value credits received</t>
+  </si>
+  <si>
+    <t>Taconit credits received</t>
+  </si>
+  <si>
+    <t>Miscellaneous property tax credits received</t>
+  </si>
+  <si>
+    <t>Total property tax refunds</t>
+  </si>
+  <si>
+    <t>Home property tax refunds</t>
+  </si>
+  <si>
+    <t>Renter property tax refunds</t>
+  </si>
+  <si>
+    <t>Targeted property tax refunds</t>
+  </si>
+  <si>
+    <t>Total NTC levy</t>
+  </si>
+  <si>
+    <t>Total market value levy</t>
+  </si>
+  <si>
+    <t>Total property tax levies</t>
+  </si>
+  <si>
+    <t>State property tax levy</t>
+  </si>
+  <si>
+    <t>Property tax credits</t>
+  </si>
+  <si>
+    <t>Net property taxes payable</t>
+  </si>
+  <si>
+    <t>Total taxes paid</t>
+  </si>
+  <si>
+    <t>Income taxes</t>
+  </si>
+  <si>
+    <t>Sales taxes</t>
+  </si>
+  <si>
+    <t>Vehicle taxes</t>
+  </si>
+  <si>
+    <t>Excise taxes</t>
+  </si>
+  <si>
+    <t>License taxes</t>
+  </si>
+  <si>
+    <t>Gas taxes</t>
+  </si>
+  <si>
+    <t>Corporate taxes</t>
+  </si>
+  <si>
+    <t>State property taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -716,6 +873,18 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -741,7 +910,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -750,8 +919,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -765,8 +946,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="20">
     <cellStyle name="F2" xfId="1"/>
     <cellStyle name="F3" xfId="2"/>
     <cellStyle name="F4" xfId="3"/>
@@ -774,6 +956,18 @@
     <cellStyle name="F6" xfId="5"/>
     <cellStyle name="F7" xfId="6"/>
     <cellStyle name="F8" xfId="7"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1078,15 +1272,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="9" width="14.85546875" style="10" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
@@ -1133,10 +1328,10 @@
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1277,10 +1472,10 @@
       <c r="B2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>87</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>7</v>
       </c>
       <c r="E2" s="6">
@@ -1437,10 +1632,10 @@
       <c r="B3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>86</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="6">
@@ -1597,10 +1792,10 @@
       <c r="B4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>85</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>12</v>
       </c>
       <c r="E4" s="6">
@@ -1757,10 +1952,10 @@
       <c r="B5" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>84</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="6">
@@ -1917,10 +2112,10 @@
       <c r="B6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>83</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>11</v>
       </c>
       <c r="E6" s="6">
@@ -2077,10 +2272,10 @@
       <c r="B7" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>82</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>13</v>
       </c>
       <c r="E7" s="6">
@@ -2237,10 +2432,10 @@
       <c r="B8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>81</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>11</v>
       </c>
       <c r="E8" s="6">
@@ -2397,10 +2592,10 @@
       <c r="B9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>80</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
       <c r="E9" s="6">
@@ -2557,10 +2752,10 @@
       <c r="B10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>79</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>12</v>
       </c>
       <c r="E10" s="6">
@@ -2717,10 +2912,10 @@
       <c r="B11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>78</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" s="6">
@@ -2877,10 +3072,10 @@
       <c r="B12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>77</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="E12" s="6">
@@ -3037,10 +3232,10 @@
       <c r="B13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>76</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>7</v>
       </c>
       <c r="E13" s="6">
@@ -3197,10 +3392,10 @@
       <c r="B14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>75</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="6">
@@ -3357,10 +3552,10 @@
       <c r="B15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>74</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>12</v>
       </c>
       <c r="E15" s="6">
@@ -3517,10 +3712,10 @@
       <c r="B16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>73</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>9</v>
       </c>
       <c r="E16" s="6">
@@ -3677,10 +3872,10 @@
       <c r="B17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>72</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>11</v>
       </c>
       <c r="E17" s="6">
@@ -3837,10 +4032,10 @@
       <c r="B18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>71</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>9</v>
       </c>
       <c r="E18" s="6">
@@ -3997,10 +4192,10 @@
       <c r="B19" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>70</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>13</v>
       </c>
       <c r="E19" s="6">
@@ -4157,10 +4352,10 @@
       <c r="B20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>69</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
       <c r="E20" s="6">
@@ -4317,10 +4512,10 @@
       <c r="B21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>68</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="6">
@@ -4477,10 +4672,10 @@
       <c r="B22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>67</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>10</v>
       </c>
       <c r="E22" s="5">
@@ -4637,10 +4832,10 @@
       <c r="B23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>66</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>12</v>
       </c>
       <c r="E23" s="6">
@@ -4797,10 +4992,10 @@
       <c r="B24" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>65</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="6">
@@ -4957,10 +5152,10 @@
       <c r="B25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>64</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>10</v>
       </c>
       <c r="E25" s="6">
@@ -5117,10 +5312,10 @@
       <c r="B26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>63</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="6">
@@ -5277,10 +5472,10 @@
       <c r="B27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>62</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>13</v>
       </c>
       <c r="E27" s="6">
@@ -5437,10 +5632,10 @@
       <c r="B28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>61</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>4</v>
       </c>
       <c r="E28" s="6">
@@ -5597,10 +5792,10 @@
       <c r="B29" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>60</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="6">
@@ -5757,10 +5952,10 @@
       <c r="B30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>59</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>10</v>
       </c>
       <c r="E30" s="6">
@@ -5917,10 +6112,10 @@
       <c r="B31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>58</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>8</v>
       </c>
       <c r="E31" s="6">
@@ -6077,10 +6272,10 @@
       <c r="B32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>57</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="6">
@@ -6237,10 +6432,10 @@
       <c r="B33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>56</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>4</v>
       </c>
       <c r="E33" s="6">
@@ -6397,10 +6592,10 @@
       <c r="B34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>55</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>12</v>
       </c>
       <c r="E34" s="6">
@@ -6557,10 +6752,10 @@
       <c r="B35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>54</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="6">
@@ -6717,10 +6912,10 @@
       <c r="B36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>53</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>10</v>
       </c>
       <c r="E36" s="6">
@@ -6877,10 +7072,10 @@
       <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>52</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>11</v>
       </c>
       <c r="E37" s="6">
@@ -7037,10 +7232,10 @@
       <c r="B38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>51</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>10</v>
       </c>
       <c r="E38" s="6">
@@ -7197,10 +7392,10 @@
       <c r="B39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>50</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>12</v>
       </c>
       <c r="E39" s="6">
@@ -7357,10 +7552,10 @@
       <c r="B40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>49</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>5</v>
       </c>
       <c r="E40" s="6">
@@ -7517,10 +7712,10 @@
       <c r="B41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>48</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>8</v>
       </c>
       <c r="E41" s="6">
@@ -7677,10 +7872,10 @@
       <c r="B42" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>47</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>6</v>
       </c>
       <c r="E42" s="6">
@@ -7837,10 +8032,10 @@
       <c r="B43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>46</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>11</v>
       </c>
       <c r="E43" s="6">
@@ -7997,10 +8192,10 @@
       <c r="B44" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>45</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="6">
@@ -8157,10 +8352,10 @@
       <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>44</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>2</v>
       </c>
       <c r="E45" s="6">
@@ -8317,10 +8512,10 @@
       <c r="B46" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>43</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>6</v>
       </c>
       <c r="E46" s="6">
@@ -8477,10 +8672,10 @@
       <c r="B47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>42</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>10</v>
       </c>
       <c r="E47" s="6">
@@ -8637,10 +8832,10 @@
       <c r="B48" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>41</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>10</v>
       </c>
       <c r="E48" s="6">
@@ -8797,10 +8992,10 @@
       <c r="B49" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>40</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>11</v>
       </c>
       <c r="E49" s="6">
@@ -8957,10 +9152,10 @@
       <c r="B50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>39</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>2</v>
       </c>
       <c r="E50" s="6">
@@ -9117,10 +9312,10 @@
       <c r="B51" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>38</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>3</v>
       </c>
       <c r="E51" s="6">
@@ -9277,10 +9472,10 @@
       <c r="B52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>37</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>7</v>
       </c>
       <c r="E52" s="6">
@@ -9437,10 +9632,10 @@
       <c r="B53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>36</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>3</v>
       </c>
       <c r="E53" s="6">
@@ -9597,10 +9792,10 @@
       <c r="B54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>35</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="6">
@@ -9757,10 +9952,10 @@
       <c r="B55" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>34</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="3">
         <v>6</v>
       </c>
       <c r="E55" s="6">
@@ -9917,10 +10112,10 @@
       <c r="B56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>33</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="3">
         <v>8</v>
       </c>
       <c r="E56" s="6">
@@ -10077,10 +10272,10 @@
       <c r="B57" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>32</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <v>10</v>
       </c>
       <c r="E57" s="6">
@@ -10237,10 +10432,10 @@
       <c r="B58" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>31</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="3">
         <v>3</v>
       </c>
       <c r="E58" s="6">
@@ -10397,10 +10592,10 @@
       <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>30</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="3">
         <v>8</v>
       </c>
       <c r="E59" s="6">
@@ -10557,10 +10752,10 @@
       <c r="B60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>29</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="3">
         <v>2</v>
       </c>
       <c r="E60" s="6">
@@ -10717,10 +10912,10 @@
       <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>28</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="3">
         <v>12</v>
       </c>
       <c r="E61" s="6">
@@ -10877,10 +11072,10 @@
       <c r="B62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>27</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="3">
         <v>13</v>
       </c>
       <c r="E62" s="6">
@@ -11037,10 +11232,10 @@
       <c r="B63" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>26</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="3">
         <v>4</v>
       </c>
       <c r="E63" s="6">
@@ -11197,10 +11392,10 @@
       <c r="B64" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>25</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="3">
         <v>12</v>
       </c>
       <c r="E64" s="6">
@@ -11357,10 +11552,10 @@
       <c r="B65" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>24</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="3">
         <v>12</v>
       </c>
       <c r="E65" s="6">
@@ -11517,10 +11712,10 @@
       <c r="B66" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>23</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="3">
         <v>12</v>
       </c>
       <c r="E66" s="6">
@@ -11677,10 +11872,10 @@
       <c r="B67" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="3">
         <v>22</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="3">
         <v>11</v>
       </c>
       <c r="E67" s="6">
@@ -11837,10 +12032,10 @@
       <c r="B68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>21</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>4</v>
       </c>
       <c r="E68" s="6">
@@ -11997,10 +12192,10 @@
       <c r="B69" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>20</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>12</v>
       </c>
       <c r="E69" s="6">
@@ -12157,10 +12352,10 @@
       <c r="B70" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="3">
         <v>19</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>13</v>
       </c>
       <c r="E70" s="6">
@@ -12317,10 +12512,10 @@
       <c r="B71" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="3">
         <v>18</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>5</v>
       </c>
       <c r="E71" s="6">
@@ -12477,10 +12672,10 @@
       <c r="B72" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="3">
         <v>17</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="3">
         <v>10</v>
       </c>
       <c r="E72" s="6">
@@ -12637,10 +12832,10 @@
       <c r="B73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="3">
         <v>16</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>3</v>
       </c>
       <c r="E73" s="6">
@@ -12797,10 +12992,10 @@
       <c r="B74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="3">
         <v>15</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="3">
         <v>2</v>
       </c>
       <c r="E74" s="6">
@@ -12957,10 +13152,10 @@
       <c r="B75" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="3">
         <v>14</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>4</v>
       </c>
       <c r="E75" s="6">
@@ -13117,10 +13312,10 @@
       <c r="B76" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="3">
         <v>13</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>8</v>
       </c>
       <c r="E76" s="6">
@@ -13277,10 +13472,10 @@
       <c r="B77" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="3">
         <v>12</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="3">
         <v>7</v>
       </c>
       <c r="E77" s="6">
@@ -13437,10 +13632,10 @@
       <c r="B78" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="3">
         <v>11</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="3">
         <v>5</v>
       </c>
       <c r="E78" s="6">
@@ -13597,10 +13792,10 @@
       <c r="B79" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="3">
         <v>10</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="3">
         <v>13</v>
       </c>
       <c r="E79" s="6">
@@ -13757,10 +13952,10 @@
       <c r="B80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="3">
         <v>9</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="3">
         <v>3</v>
       </c>
       <c r="E80" s="6">
@@ -13917,10 +14112,10 @@
       <c r="B81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="3">
         <v>8</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="3">
         <v>11</v>
       </c>
       <c r="E81" s="6">
@@ -14077,10 +14272,10 @@
       <c r="B82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="3">
         <v>7</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="3">
         <v>11</v>
       </c>
       <c r="E82" s="6">
@@ -14237,10 +14432,10 @@
       <c r="B83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="3">
         <v>6</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="3">
         <v>7</v>
       </c>
       <c r="E83" s="6">
@@ -14397,10 +14592,10 @@
       <c r="B84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="3">
         <v>5</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="3">
         <v>9</v>
       </c>
       <c r="E84" s="6">
@@ -14557,10 +14752,10 @@
       <c r="B85" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="3">
         <v>4</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="3">
         <v>2</v>
       </c>
       <c r="E85" s="6">
@@ -14717,10 +14912,10 @@
       <c r="B86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="3">
         <v>3</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="3">
         <v>4</v>
       </c>
       <c r="E86" s="6">
@@ -14877,10 +15072,10 @@
       <c r="B87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="3">
         <v>2</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="3">
         <v>13</v>
       </c>
       <c r="E87" s="6">
@@ -15037,10 +15232,10 @@
       <c r="B88" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="3">
         <v>1</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="3">
         <v>3</v>
       </c>
       <c r="E88" s="6">
@@ -15197,10 +15392,10 @@
       <c r="B89" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>222</v>
       </c>
       <c r="E89" s="12">
@@ -15399,26 +15594,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
